--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454239F-BC6B-41C5-A76D-B7C1BC013084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625DFFE8-3F62-4198-B492-2AA56D87CB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>NULL</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>to specify one after another</t>
+  </si>
+  <si>
+    <t>vogue</t>
+  </si>
+  <si>
+    <t>semi-arid</t>
+  </si>
+  <si>
+    <t>verdant</t>
+  </si>
+  <si>
+    <t>proponent</t>
+  </si>
+  <si>
+    <t>drastically</t>
   </si>
 </sst>
 </file>
@@ -467,7 +482,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,6 +643,9 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -643,7 +661,9 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
@@ -659,7 +679,9 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -675,7 +697,9 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -691,7 +715,9 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625DFFE8-3F62-4198-B492-2AA56D87CB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814999FE-2AD1-4F56-B28A-C3E8B9EFCE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>NULL</t>
   </si>
@@ -69,7 +69,22 @@
     <t>proponent</t>
   </si>
   <si>
-    <t>drastically</t>
+    <t>a period of popularity</t>
+  </si>
+  <si>
+    <t>characterize by light rainfall</t>
+  </si>
+  <si>
+    <t>green with glowing plants</t>
+  </si>
+  <si>
+    <t>propagandist</t>
+  </si>
+  <si>
+    <t>drastic</t>
+  </si>
+  <si>
+    <t>violent/rapid</t>
   </si>
 </sst>
 </file>
@@ -482,7 +497,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +661,9 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -664,7 +681,9 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -682,7 +701,9 @@
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -700,7 +721,9 @@
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -716,9 +739,11 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814999FE-2AD1-4F56-B28A-C3E8B9EFCE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31381D-F94C-413C-B886-237F7F086006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>NULL</t>
   </si>
@@ -85,6 +85,45 @@
   </si>
   <si>
     <t>violent/rapid</t>
+  </si>
+  <si>
+    <t>kink</t>
+  </si>
+  <si>
+    <t>a twist / unconventional sexual taste /cleaver unusual way of doing something</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>bludgeon</t>
+  </si>
+  <si>
+    <t>to hit with heavy impact</t>
+  </si>
+  <si>
+    <t>contradiction</t>
+  </si>
+  <si>
+    <t>kinda paradox</t>
+  </si>
+  <si>
+    <t>obfuscate</t>
+  </si>
+  <si>
+    <t>to evasive/unclear/confusing</t>
+  </si>
+  <si>
+    <t>oust</t>
+  </si>
+  <si>
+    <t>to take away something / cast(chuck) someone out</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>very deep/huge</t>
   </si>
 </sst>
 </file>
@@ -497,7 +536,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,9 +797,15 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
@@ -774,8 +819,12 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -790,8 +839,12 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -806,8 +859,12 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -822,8 +879,12 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -838,8 +899,12 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31381D-F94C-413C-B886-237F7F086006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E5A2E1-7EB8-40F6-BD17-AC7D5059B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>NULL</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>very deep/huge</t>
+  </si>
+  <si>
+    <t>coup de grâce</t>
+  </si>
+  <si>
+    <t>a final blow to kill someone wounded as Mercy</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,8 +925,12 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E5A2E1-7EB8-40F6-BD17-AC7D5059B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C00914A-4D30-4889-BF8E-5152958AE92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>NULL</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>a final blow to kill someone wounded as Mercy</t>
+  </si>
+  <si>
+    <t>trough</t>
+  </si>
+  <si>
+    <t>shortcoming</t>
+  </si>
+  <si>
+    <t>utopia</t>
+  </si>
+  <si>
+    <t>long container for animal to eat/drink | low points</t>
+  </si>
+  <si>
+    <t>a fault</t>
+  </si>
+  <si>
+    <t>an imaginary place where everything is perfect</t>
   </si>
 </sst>
 </file>
@@ -542,7 +560,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,8 +963,12 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -961,8 +983,12 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -977,8 +1003,12 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C00914A-4D30-4889-BF8E-5152958AE92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206AE323-44B2-45D0-B3AC-F90241E5CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>NULL</t>
   </si>
@@ -148,6 +148,48 @@
   </si>
   <si>
     <t>an imaginary place where everything is perfect</t>
+  </si>
+  <si>
+    <t>obese</t>
+  </si>
+  <si>
+    <t>extremely fat</t>
+  </si>
+  <si>
+    <t>cognitive</t>
+  </si>
+  <si>
+    <t>to take the place of someone/something</t>
+  </si>
+  <si>
+    <t>innate(adj)</t>
+  </si>
+  <si>
+    <t>fixed ability/sth u were born with</t>
+  </si>
+  <si>
+    <t>related to how people think/understand/learn</t>
+  </si>
+  <si>
+    <t>supplant</t>
+  </si>
+  <si>
+    <t>viable</t>
+  </si>
+  <si>
+    <t>retrospect</t>
+  </si>
+  <si>
+    <t>think/fix the past</t>
+  </si>
+  <si>
+    <t>effective and able to be successful</t>
+  </si>
+  <si>
+    <t>happenstance</t>
+  </si>
+  <si>
+    <t>a (conincedent) circumstance that just happened</t>
   </si>
 </sst>
 </file>
@@ -560,7 +602,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,8 +710,12 @@
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -688,8 +734,12 @@
         <v>8</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -708,8 +758,12 @@
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -728,8 +782,12 @@
         <v>14</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -748,8 +806,12 @@
         <v>15</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -768,8 +830,12 @@
         <v>16</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1023,8 +1089,12 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206AE323-44B2-45D0-B3AC-F90241E5CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7040D-7724-430D-B321-BFD4653FA41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>NULL</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>a (conincedent) circumstance that just happened</t>
+  </si>
+  <si>
+    <t>commence</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>commencement</t>
+  </si>
+  <si>
+    <t>Graduation Ceremony/Day</t>
   </si>
 </sst>
 </file>
@@ -602,7 +614,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,7 +623,7 @@
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="4.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
     <col min="6" max="6" width="39.6328125" customWidth="1"/>
     <col min="7" max="7" width="4.90625" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" customWidth="1"/>
@@ -854,8 +866,12 @@
         <v>17</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -874,8 +890,12 @@
         <v>19</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7040D-7724-430D-B321-BFD4653FA41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58312301-95FE-40B6-88ED-11A5C1F43117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>NULL</t>
   </si>
@@ -202,6 +202,90 @@
   </si>
   <si>
     <t>Graduation Ceremony/Day</t>
+  </si>
+  <si>
+    <t>façade</t>
+  </si>
+  <si>
+    <t>porch</t>
+  </si>
+  <si>
+    <t>controversial</t>
+  </si>
+  <si>
+    <t>derelict</t>
+  </si>
+  <si>
+    <t>defunct</t>
+  </si>
+  <si>
+    <t>estuary</t>
+  </si>
+  <si>
+    <t>slump</t>
+  </si>
+  <si>
+    <t>slum</t>
+  </si>
+  <si>
+    <t>demote</t>
+  </si>
+  <si>
+    <t>demobilise</t>
+  </si>
+  <si>
+    <t>plead</t>
+  </si>
+  <si>
+    <t>dilapidated</t>
+  </si>
+  <si>
+    <t>(of a building or object) in a state of disrepair or ruin as a result of age or neglect.</t>
+  </si>
+  <si>
+    <t>amenity</t>
+  </si>
+  <si>
+    <t>poise</t>
+  </si>
+  <si>
+    <t>cover area built onto house entrance</t>
+  </si>
+  <si>
+    <t>causing a lot of disagreement/argument</t>
+  </si>
+  <si>
+    <t>bad condition because of abandon/not used</t>
+  </si>
+  <si>
+    <t>appearance | front of a building</t>
+  </si>
+  <si>
+    <t>not working/existing now</t>
+  </si>
+  <si>
+    <t>wide part of river before going into sea</t>
+  </si>
+  <si>
+    <t>poor crowded area of a city</t>
+  </si>
+  <si>
+    <t>fall down suddenly</t>
+  </si>
+  <si>
+    <t>opposite of promote</t>
+  </si>
+  <si>
+    <t>back off an army force</t>
+  </si>
+  <si>
+    <t>legally appeal sth | ask sth</t>
+  </si>
+  <si>
+    <t>desireable/useful feature of a place</t>
+  </si>
+  <si>
+    <t>behave in a calm/cofident way</t>
   </si>
 </sst>
 </file>
@@ -614,7 +698,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,8 +813,12 @@
         <v>47</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -753,8 +841,12 @@
         <v>46</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -777,8 +869,12 @@
         <v>44</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -916,8 +1012,12 @@
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -936,8 +1036,12 @@
         <v>24</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -956,8 +1060,12 @@
         <v>26</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -976,8 +1084,12 @@
         <v>28</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -996,8 +1108,12 @@
         <v>30</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1016,8 +1132,12 @@
         <v>32</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1036,8 +1156,12 @@
         <v>34</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1056,8 +1180,12 @@
         <v>38</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1076,8 +1204,12 @@
         <v>39</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1096,8 +1228,12 @@
         <v>40</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1116,8 +1252,12 @@
         <v>42</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58312301-95FE-40B6-88ED-11A5C1F43117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7FD497-BDB0-47BB-891A-7145A8DD55CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>NULL</t>
   </si>
@@ -286,13 +286,25 @@
   </si>
   <si>
     <t>behave in a calm/cofident way</t>
+  </si>
+  <si>
+    <t>pertain</t>
+  </si>
+  <si>
+    <t>realated to sth</t>
+  </si>
+  <si>
+    <t>procession</t>
+  </si>
+  <si>
+    <t>line of MovingPeople at a ceremony/event</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +333,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +365,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -354,14 +379,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,13 +416,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -695,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE2BE65-1CC2-4D31-AB72-F2E4F74D8764}">
-  <dimension ref="B2:O33"/>
+  <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,38 +767,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
@@ -897,8 +943,12 @@
         <v>52</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -921,8 +971,12 @@
         <v>51</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1100,7 +1154,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1124,7 +1178,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +1202,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
@@ -1172,7 +1226,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1196,7 +1250,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1220,7 +1274,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1244,7 +1298,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
@@ -1268,15 +1322,16 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+    <row r="24" spans="1:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="4"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1284,7 +1339,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -1300,7 +1355,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
@@ -1316,37 +1371,37 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D27" s="4"/>
       <c r="G27" s="4"/>
       <c r="J27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D28" s="4"/>
       <c r="G28" s="4"/>
       <c r="J28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D29" s="4"/>
       <c r="G29" s="4"/>
       <c r="J29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D30" s="4"/>
       <c r="G30" s="4"/>
       <c r="J30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D31" s="4"/>
       <c r="G31" s="4"/>
       <c r="J31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D32" s="4"/>
       <c r="G32" s="4"/>
       <c r="J32" s="4"/>
@@ -1354,8 +1409,88 @@
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="J33" s="4"/>
       <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7FD497-BDB0-47BB-891A-7145A8DD55CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC30DA-66E1-4E73-97D2-3F0AE7366AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>NULL</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>line of MovingPeople at a ceremony/event</t>
+  </si>
+  <si>
+    <t>omit</t>
+  </si>
+  <si>
+    <t>to not include sth</t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -999,8 +1005,12 @@
         <v>54</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC30DA-66E1-4E73-97D2-3F0AE7366AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6061A-BCF4-4258-A3B6-340AB9A8BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>NULL</t>
   </si>
@@ -303,7 +303,13 @@
     <t>omit</t>
   </si>
   <si>
-    <t>to not include sth</t>
+    <t>intuitive</t>
+  </si>
+  <si>
+    <t>leave out / to not include sth</t>
+  </si>
+  <si>
+    <t>feeling of knowing sth with being able to explain</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,7 +1015,7 @@
         <v>91</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="3"/>
@@ -1033,8 +1039,12 @@
         <v>56</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6061A-BCF4-4258-A3B6-340AB9A8BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31CB078-3541-48DC-98AA-C1F87322479E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>NULL</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>feeling of knowing sth with being able to explain</t>
+  </si>
+  <si>
+    <t>perceive</t>
+  </si>
+  <si>
+    <t>aware/conscious of sth | interpret/regard sth in particular way</t>
+  </si>
+  <si>
+    <t>linger</t>
+  </si>
+  <si>
+    <t>stay somewhere for a long time</t>
   </si>
 </sst>
 </file>
@@ -756,7 +768,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,8 +1079,12 @@
         <v>58</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1093,8 +1109,12 @@
         <v>77</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31CB078-3541-48DC-98AA-C1F87322479E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5837C62-DD96-4D74-B228-95C2D0F5D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>NULL</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>stay somewhere for a long time</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>small | not important/matter</t>
+  </si>
+  <si>
+    <t>patent</t>
+  </si>
+  <si>
+    <t>obvious | legal right to sell sth/invention</t>
   </si>
 </sst>
 </file>
@@ -768,7 +780,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,8 +1149,12 @@
         <v>74</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1161,8 +1177,12 @@
         <v>75</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5837C62-DD96-4D74-B228-95C2D0F5D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED7A966-2B64-48E0-A696-E9EF0A821356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>NULL</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>obvious | legal right to sell sth/invention</t>
+  </si>
+  <si>
+    <t>sleek</t>
+  </si>
+  <si>
+    <t>smooth/shiny hair (or) attractive/expensive car</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1205,8 +1211,12 @@
         <v>76</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED7A966-2B64-48E0-A696-E9EF0A821356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB1D6C-9B58-4DA2-AFD6-3E53261B24F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t>NULL</t>
   </si>
@@ -340,6 +340,30 @@
   </si>
   <si>
     <t>smooth/shiny hair (or) attractive/expensive car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeopardize </t>
+  </si>
+  <si>
+    <t>risk damaging or destroying sth important</t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>stop sth (from developing/progressing)</t>
+  </si>
+  <si>
+    <t>disparate</t>
+  </si>
+  <si>
+    <t>having many differences</t>
+  </si>
+  <si>
+    <t>coarse</t>
+  </si>
+  <si>
+    <t>rough and hard</t>
   </si>
 </sst>
 </file>
@@ -786,7 +810,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1239,8 +1263,12 @@
         <v>78</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1263,8 +1291,12 @@
         <v>79</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1287,8 +1319,12 @@
         <v>80</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1311,8 +1347,12 @@
         <v>81</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB1D6C-9B58-4DA2-AFD6-3E53261B24F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D34CF-3445-4B20-85FE-78D84FE72206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>NULL</t>
   </si>
@@ -364,6 +364,18 @@
   </si>
   <si>
     <t>rough and hard</t>
+  </si>
+  <si>
+    <t>scintillating</t>
+  </si>
+  <si>
+    <t>very interesting/exciting</t>
+  </si>
+  <si>
+    <t>clemency</t>
+  </si>
+  <si>
+    <t>show mercy deciding punishment over criminal</t>
   </si>
 </sst>
 </file>
@@ -810,7 +822,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1375,8 +1387,12 @@
         <v>82</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1399,8 +1415,12 @@
         <v>83</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D34CF-3445-4B20-85FE-78D84FE72206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32C52C2-4881-45D6-89F4-42456398E6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t>NULL</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>show mercy deciding punishment over criminal</t>
+  </si>
+  <si>
+    <t>agglomerate</t>
+  </si>
+  <si>
+    <t>collect or form into a mass/group</t>
   </si>
 </sst>
 </file>
@@ -821,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE2BE65-1CC2-4D31-AB72-F2E4F74D8764}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,8 +1449,12 @@
         <v>84</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32C52C2-4881-45D6-89F4-42456398E6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0A0AF-05C4-428C-BF68-A0C850206B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
   <si>
     <t>NULL</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>collect or form into a mass/group</t>
+  </si>
+  <si>
+    <t>pompous</t>
+  </si>
+  <si>
+    <t>who think they more important than they really are</t>
   </si>
 </sst>
 </file>
@@ -827,13 +833,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE2BE65-1CC2-4D31-AB72-F2E4F74D8764}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="4.81640625" customWidth="1"/>
@@ -1480,8 +1486,12 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0A0AF-05C4-428C-BF68-A0C850206B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417E662-34E4-448E-88C5-BF9CAECAE104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
   <si>
     <t>NULL</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>who think they more important than they really are</t>
+  </si>
+  <si>
+    <t>nurture</t>
+  </si>
+  <si>
+    <t>to encourage/support the development of sth/sone</t>
   </si>
 </sst>
 </file>
@@ -833,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE2BE65-1CC2-4D31-AB72-F2E4F74D8764}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1506,8 +1512,12 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417E662-34E4-448E-88C5-BF9CAECAE104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE67F71-7297-49F0-95B2-D4FF76085F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
   <si>
     <t>NULL</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>to encourage/support the development of sth/sone</t>
+  </si>
+  <si>
+    <t>myriad</t>
+  </si>
+  <si>
+    <t>very very many</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +523,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE2BE65-1CC2-4D31-AB72-F2E4F74D8764}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1532,6 +1541,12 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="G27" s="4"/>
       <c r="J27" s="4"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE67F71-7297-49F0-95B2-D4FF76085F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330A6EBE-A865-4A39-A991-8A53A936CCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
   <si>
     <t>NULL</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>very very many</t>
+  </si>
+  <si>
+    <t>bribery</t>
+  </si>
+  <si>
+    <t>offering presnts to someone with dihonesty to got sth in return</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1541,10 +1547,10 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="4"/>
@@ -1553,6 +1559,12 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="G28" s="4"/>
       <c r="J28" s="4"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330A6EBE-A865-4A39-A991-8A53A936CCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AE160-74EB-4391-8265-74830E3C40DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>NULL</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>offering presnts to someone with dihonesty to got sth in return</t>
+  </si>
+  <si>
+    <t>roach</t>
+  </si>
+  <si>
+    <t>some kind of fish in Europe</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1559,10 +1565,10 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D28" s="4"/>
@@ -1571,6 +1577,12 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="G29" s="4"/>
       <c r="J29" s="4"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AE160-74EB-4391-8265-74830E3C40DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9322E419-6753-4D3E-9794-6A48DE4A0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
   <si>
     <t>NULL</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>some kind of fish in Europe</t>
+  </si>
+  <si>
+    <t>serendipity</t>
+  </si>
+  <si>
+    <t>get lucky and find sth valuable by chance</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,9 +541,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +864,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1577,10 +1580,10 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D29" s="4"/>
@@ -1589,6 +1592,12 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="G30" s="4"/>
       <c r="J30" s="4"/>

--- a/Vocabs.xlsx
+++ b/Vocabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\NZs2024_Return\IELTS\my_IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9322E419-6753-4D3E-9794-6A48DE4A0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07626E33-A794-4B2C-879A-7C356E812AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{883ACD4D-8627-4E1A-8D32-737874AC0ED2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
   <si>
     <t>NULL</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>get lucky and find sth valuable by chance</t>
+  </si>
+  <si>
+    <t>abide</t>
+  </si>
+  <si>
+    <t>be able to tolerant (sth/someone)</t>
   </si>
 </sst>
 </file>
@@ -864,7 +870,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,6 +1610,12 @@
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="G31" s="4"/>
       <c r="J31" s="4"/>
